--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-ito\Documents\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A5CB2C-A40D-422E-A260-4085BD772FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07D2F7-DFE9-4D20-9AA3-70C6E6096208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
@@ -79,42 +79,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>8桁目</t>
-    <rPh sb="1" eb="3">
-      <t>ケタメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6(固定)</t>
-    <rPh sb="2" eb="4">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>12,13桁目</t>
-    <rPh sb="5" eb="7">
-      <t>ケタメ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00(固定)</t>
-    <rPh sb="3" eb="5">
-      <t>コテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>00</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>表裏(A/B)</t>
     <rPh sb="0" eb="2">
       <t>ヒョウリ</t>
@@ -145,19 +109,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>80F13IF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>S</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6365590_A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>6365630_A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -287,7 +239,42 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>250528I659000B10213IF</t>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30289IF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>80345SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20215DF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前1桁＋365+2番目から３桁</t>
+    <rPh sb="0" eb="1">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ケタ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -384,23 +371,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -418,17 +399,17 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -838,16 +819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>178593</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>172640</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>172639</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -862,8 +843,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5959078" y="2500312"/>
-          <a:ext cx="345281" cy="178594"/>
+          <a:off x="2583656" y="3214688"/>
+          <a:ext cx="345280" cy="178594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,13 +894,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -937,8 +918,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5613797" y="2143125"/>
-          <a:ext cx="517922" cy="178594"/>
+          <a:off x="1893094" y="2857500"/>
+          <a:ext cx="1035844" cy="178594"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -974,14 +955,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>86320</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>178593</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>89296</xdr:rowOff>
     </xdr:to>
@@ -1001,8 +982,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipH="1">
-          <a:off x="5781973" y="2412504"/>
-          <a:ext cx="267890" cy="86320"/>
+          <a:off x="2363391" y="3083719"/>
+          <a:ext cx="267891" cy="172640"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -1308,9 +1289,9 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
@@ -1401,156 +1382,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>178494</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23912</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F777BD45-D606-3636-39D3-3AC090D31EFF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="5357713"/>
-          <a:ext cx="714475" cy="714475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>178494</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23912</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87F15144-31FC-0820-0246-6A84D1604F6D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="7858025"/>
-          <a:ext cx="714475" cy="714475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23912</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>100</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB8CE53A-29EE-EC85-B1D1-48F3CF8DF49C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="857250" y="2857500"/>
-          <a:ext cx="714475" cy="714475"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -1935,6 +1766,306 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23912</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE967CDA-0DC7-6CB3-F68F-65714AE7EC6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="4286250"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23913</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{969C96E8-E2E8-29C6-478F-DF7548200624}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4137422" y="4286250"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23912</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98D250A2-4CA3-871D-0DEA-B2714C41C4C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="6786463"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>178494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23913</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECF067D-499E-0D97-B9B1-060193816EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4137422" y="6786463"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>178494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23912</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66E9A663-1AC5-8DA3-EB77-CD61AD3B4488}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857250" y="9286775"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>178494</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>23913</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76EFED79-6DDF-0C1B-F6ED-BCDD56F54F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4137422" y="9286775"/>
+          <a:ext cx="714475" cy="714475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2255,231 +2386,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
-  <dimension ref="B2:AC64"/>
+  <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AL58" sqref="AL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="28" width="2.25" customWidth="1"/>
+    <col min="2" max="37" width="2.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <v>1</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>3</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>4</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>5</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>6</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>7</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="2">
         <v>8</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>9</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16" s="2">
         <v>10</v>
       </c>
-      <c r="L16" s="3">
+      <c r="L16" s="2">
         <v>11</v>
       </c>
-      <c r="M16" s="3">
+      <c r="M16" s="2">
         <v>12</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="2">
         <v>13</v>
       </c>
-      <c r="O16" s="3">
+      <c r="O16" s="2">
         <v>14</v>
       </c>
-      <c r="P16" s="3">
+      <c r="P16" s="2">
         <v>15</v>
       </c>
-      <c r="Q16" s="3">
+      <c r="Q16" s="2">
         <v>16</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="2">
         <v>17</v>
       </c>
-      <c r="S16" s="3">
+      <c r="S16" s="2">
         <v>18</v>
       </c>
-      <c r="T16" s="3">
+      <c r="T16" s="2">
         <v>19</v>
       </c>
-      <c r="U16" s="3">
+      <c r="U16" s="2">
         <v>20</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H17" s="9" t="s">
+      <c r="H17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="6" t="s">
+      <c r="K17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="O17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="P17" s="8" t="s">
+      <c r="P17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="8" t="s">
+      <c r="R17" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T17" s="8" t="s">
+      <c r="T17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="U17" s="8" t="s">
+      <c r="U17" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="V17" s="8" t="s">
+      <c r="V17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="19" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC19" t="s">
-        <v>40</v>
+    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="20" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="AC20" t="s">
-        <v>40</v>
-      </c>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
     </row>
-    <row r="23" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>36</v>
+    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="C29" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,N30:N34)</f>
+        <v>250528H659000B10213IF</v>
+      </c>
+      <c r="V29" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,AG30:AG34)</f>
+        <v>250528I659000B20215DF</v>
       </c>
     </row>
-    <row r="25" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-      <c r="S25" s="10"/>
-      <c r="T25" s="10"/>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-    </row>
-    <row r="29" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="C29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,N30:N36)</f>
-        <v>250528I659000B10213IF</v>
-      </c>
-    </row>
-    <row r="30" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>0</v>
       </c>
@@ -2498,116 +2619,152 @@
         <f>TEXT(YEAR(H30)-2000,"00") &amp; TEXT(MONTH(H30),"00")&amp;TEXT(DAY(H30),"00")</f>
         <v>250528</v>
       </c>
+      <c r="V30" t="s">
+        <v>0</v>
+      </c>
+      <c r="W30" s="1"/>
+      <c r="AA30" s="11">
+        <v>45805</v>
+      </c>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
+      <c r="AF30" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG30" s="1" t="str">
+        <f>TEXT(YEAR(AA30)-2000,"00") &amp; TEXT(MONTH(AA30),"00")&amp;TEXT(DAY(AA30),"00")</f>
+        <v>250528</v>
+      </c>
     </row>
-    <row r="31" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="M31" t="s">
         <v>14</v>
       </c>
       <c r="N31" t="str">
         <f>H31</f>
+        <v>H</v>
+      </c>
+      <c r="V31" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA31" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG31" t="str">
+        <f>AA31</f>
         <v>I</v>
       </c>
     </row>
-    <row r="32" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H32" s="10">
+        <v>6365590</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>14</v>
       </c>
-      <c r="N32" s="12" t="s">
-        <v>16</v>
+      <c r="N32" t="str">
+        <f>MID(H32,1,1)&amp; MID(H32,5,3)&amp;"00"</f>
+        <v>659000</v>
+      </c>
+      <c r="V32" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA32" s="10">
+        <v>6365590</v>
+      </c>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AG32" t="str">
+        <f>MID(AA32,1,1)&amp; MID(AA32,5,3)&amp;"00"</f>
+        <v>659000</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" s="13">
-        <v>6365590</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
       <c r="M33" t="s">
         <v>14</v>
       </c>
       <c r="N33" t="str">
-        <f>MID(MID(H33,1,100),LEN(MID(H33,1,100))-2,3)</f>
-        <v>590</v>
+        <f>H33</f>
+        <v>B</v>
+      </c>
+      <c r="V33" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG33" t="str">
+        <f>AA33</f>
+        <v>B</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M34" t="s">
         <v>14</v>
       </c>
-      <c r="N34" s="12" t="s">
-        <v>20</v>
+      <c r="N34" t="str">
+        <f>MID(H34,1,7)</f>
+        <v>10213IF</v>
+      </c>
+      <c r="V34" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA34" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG34" t="str">
+        <f>MID(AA34,1,7)</f>
+        <v>20215DF</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="H35" t="s">
-        <v>24</v>
-      </c>
-      <c r="M35" t="s">
-        <v>14</v>
-      </c>
-      <c r="N35" t="str">
-        <f>H35</f>
-        <v>B</v>
+    <row r="43" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C43" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,N44:N48)</f>
+        <v>250602J659000A80345SF</v>
+      </c>
+      <c r="V43" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,AG44:AG48)</f>
+        <v>250602K659000B30289IF</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>22</v>
-      </c>
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" t="str">
-        <f>MID(H36,1,7)</f>
-        <v>10213IF</v>
-      </c>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="M40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C43" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,N44:N50)</f>
-        <v>250602H659000A80F13IF</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>0</v>
       </c>
@@ -2626,106 +2783,158 @@
         <f>TEXT(YEAR(H44)-2000,"00") &amp; TEXT(MONTH(H44),"00")&amp;TEXT(DAY(H44),"00")</f>
         <v>250602</v>
       </c>
+      <c r="V44" t="s">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1"/>
+      <c r="AA44" s="11">
+        <v>45810</v>
+      </c>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
+      <c r="AF44" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG44" s="1" t="str">
+        <f>TEXT(YEAR(AA44)-2000,"00") &amp; TEXT(MONTH(AA44),"00")&amp;TEXT(DAY(AA44),"00")</f>
+        <v>250602</v>
+      </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
       </c>
       <c r="N45" t="str">
         <f>H45</f>
-        <v>H</v>
+        <v>J</v>
+      </c>
+      <c r="V45" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG45" t="str">
+        <f>AA45</f>
+        <v>K</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>15</v>
-      </c>
-      <c r="H46" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H46" s="10">
+        <v>6365590</v>
+      </c>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
       <c r="M46" t="s">
         <v>14</v>
       </c>
-      <c r="N46" s="12" t="s">
-        <v>16</v>
+      <c r="N46" t="str">
+        <f>MID(H46,1,1)&amp; MID(H46,5,3)&amp;"00"</f>
+        <v>659000</v>
+      </c>
+      <c r="V46" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA46" s="10">
+        <v>6365590</v>
+      </c>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
+      <c r="AF46" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG46" t="str">
+        <f>MID(AA46,1,1)&amp; MID(AA46,5,3)&amp;"00"</f>
+        <v>659000</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" s="13">
-        <v>6365590</v>
-      </c>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="H47" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="9"/>
       <c r="M47" t="s">
         <v>14</v>
       </c>
       <c r="N47" t="str">
-        <f>MID(MID(H47,1,100),LEN(MID(H47,1,100))-2,3)</f>
-        <v>590</v>
+        <f>H47</f>
+        <v>A</v>
+      </c>
+      <c r="V47" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA47" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG47" t="str">
+        <f>AA47</f>
+        <v>B</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H48" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="M48" t="s">
         <v>14</v>
       </c>
-      <c r="N48" s="12" t="s">
-        <v>20</v>
+      <c r="N48" t="str">
+        <f>MID(H48,1,7)</f>
+        <v>80345SF</v>
+      </c>
+      <c r="V48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG48" t="str">
+        <f>MID(AA48,1,7)</f>
+        <v>30289IF</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>21</v>
-      </c>
-      <c r="H49" t="s">
-        <v>26</v>
-      </c>
-      <c r="M49" t="s">
-        <v>14</v>
-      </c>
-      <c r="N49" t="str">
-        <f>H49</f>
-        <v>A</v>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.25">
+      <c r="C57" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,N58:N62)</f>
+        <v>250610S663000B40F13SF</v>
+      </c>
+      <c r="V57" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,AG58:AG62)</f>
+        <v>250602K663000B30289IF</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>22</v>
-      </c>
-      <c r="H50" t="s">
-        <v>27</v>
-      </c>
-      <c r="M50" t="s">
-        <v>14</v>
-      </c>
-      <c r="N50" t="str">
-        <f>MID(H50,1,7)</f>
-        <v>80F13IF</v>
-      </c>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C57" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,N58:N64)</f>
-        <v>250610S663000B40F13SF</v>
-      </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>0</v>
       </c>
@@ -2744,13 +2953,31 @@
         <f>TEXT(YEAR(H58)-2000,"00") &amp; TEXT(MONTH(H58),"00")&amp;TEXT(DAY(H58),"00")</f>
         <v>250610</v>
       </c>
+      <c r="V58" t="s">
+        <v>0</v>
+      </c>
+      <c r="W58" s="1"/>
+      <c r="AA58" s="11">
+        <v>45810</v>
+      </c>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
+      <c r="AF58" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG58" s="1" t="str">
+        <f>TEXT(YEAR(AA58)-2000,"00") &amp; TEXT(MONTH(AA58),"00")&amp;TEXT(DAY(AA58),"00")</f>
+        <v>250602</v>
+      </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M59" t="s">
         <v>14</v>
@@ -2759,92 +2986,125 @@
         <f>H59</f>
         <v>S</v>
       </c>
+      <c r="V59" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG59" t="str">
+        <f>AA59</f>
+        <v>K</v>
+      </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="H60" t="s">
-        <v>17</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="H60" s="10">
+        <v>6365630</v>
+      </c>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
       <c r="M60" t="s">
         <v>14</v>
       </c>
-      <c r="N60" s="12" t="s">
-        <v>16</v>
+      <c r="N60" t="str">
+        <f>MID(H60,1,1)&amp; MID(H60,5,3)&amp;"00"</f>
+        <v>663000</v>
+      </c>
+      <c r="V60" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA60" s="10">
+        <v>6365630</v>
+      </c>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AF60" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG60" t="str">
+        <f>MID(AA60,1,1)&amp; MID(AA60,5,3)&amp;"00"</f>
+        <v>663000</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="13">
-        <v>6365630</v>
-      </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="13"/>
-      <c r="K61" s="13"/>
-      <c r="L61" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="9"/>
       <c r="M61" t="s">
         <v>14</v>
       </c>
       <c r="N61" t="str">
-        <f>MID(MID(H61,1,100),LEN(MID(H61,1,100))-2,3)</f>
-        <v>630</v>
+        <f>H61</f>
+        <v>B</v>
+      </c>
+      <c r="V61" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>14</v>
+      </c>
+      <c r="AG61" t="str">
+        <f>AA61</f>
+        <v>B</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:33" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M62" t="s">
         <v>14</v>
       </c>
-      <c r="N62" s="12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>21</v>
-      </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="N62" t="str">
+        <f>MID(H62,1,7)</f>
+        <v>40F13SF</v>
+      </c>
+      <c r="V62" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA62" t="s">
+        <v>33</v>
+      </c>
+      <c r="AF62" t="s">
         <v>14</v>
       </c>
-      <c r="N63" t="str">
-        <f>H63</f>
-        <v>B</v>
-      </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>22</v>
-      </c>
-      <c r="H64" t="s">
-        <v>32</v>
-      </c>
-      <c r="M64" t="s">
-        <v>14</v>
-      </c>
-      <c r="N64" t="str">
-        <f>MID(H64,1,7)</f>
-        <v>40F13SF</v>
+      <c r="AG62" t="str">
+        <f>MID(AA62,1,7)</f>
+        <v>30289IF</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H47:K47"/>
-    <mergeCell ref="H61:K61"/>
+  <mergeCells count="12">
+    <mergeCell ref="AA60:AD60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AA58:AE58"/>
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AA44:AE44"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="H32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-ito\Documents\git\NG_Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA07D2F7-DFE9-4D20-9AA3-70C6E6096208}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9335817-2C7C-4D1A-BDBC-8E9FDC2491BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -403,13 +414,13 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2070,9 +2081,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2110,7 +2121,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2216,7 +2227,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2358,7 +2369,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2366,7 +2377,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="1" width="350" row="4">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="1">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
 </wetp:taskpanes>
@@ -2388,8 +2399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
   <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AL58" sqref="AL58"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46:K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2425,6 +2436,92 @@
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <f>B16-1</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" ref="C15:V15" si="0">C16-1</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M15" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N15" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="O15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="V15" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
@@ -2605,13 +2702,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <v>45805</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
       <c r="M30" t="s">
         <v>14</v>
       </c>
@@ -2623,13 +2720,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="AA30" s="11">
+      <c r="AA30" s="12">
         <v>45805</v>
       </c>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
@@ -2670,12 +2767,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="11">
         <v>6365590</v>
       </c>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>14</v>
@@ -2687,12 +2784,12 @@
       <c r="V32" t="s">
         <v>22</v>
       </c>
-      <c r="AA32" s="10">
+      <c r="AA32" s="11">
         <v>6365590</v>
       </c>
-      <c r="AB32" s="10"/>
-      <c r="AC32" s="10"/>
-      <c r="AD32" s="10"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
       <c r="AG32" t="str">
         <f>MID(AA32,1,1)&amp; MID(AA32,5,3)&amp;"00"</f>
         <v>659000</v>
@@ -2769,13 +2866,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="H44" s="11">
+      <c r="H44" s="12">
         <v>45810</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
@@ -2787,13 +2884,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="AA44" s="11">
+      <c r="AA44" s="12">
         <v>45810</v>
       </c>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
@@ -2834,12 +2931,12 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="11">
         <v>6365590</v>
       </c>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="M46" t="s">
         <v>14</v>
       </c>
@@ -2850,12 +2947,12 @@
       <c r="V46" t="s">
         <v>22</v>
       </c>
-      <c r="AA46" s="10">
+      <c r="AA46" s="11">
         <v>6365590</v>
       </c>
-      <c r="AB46" s="10"/>
-      <c r="AC46" s="10"/>
-      <c r="AD46" s="10"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
       <c r="AF46" t="s">
         <v>14</v>
       </c>
@@ -2871,9 +2968,9 @@
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="9"/>
       <c r="M47" t="s">
         <v>14</v>
@@ -2939,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="H58" s="11">
+      <c r="H58" s="12">
         <v>45818</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
       <c r="M58" t="s">
         <v>14</v>
       </c>
@@ -2957,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="AA58" s="11">
+      <c r="AA58" s="12">
         <v>45810</v>
       </c>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
       <c r="AF58" t="s">
         <v>14</v>
       </c>
@@ -3004,12 +3101,12 @@
       <c r="C60" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="10">
+      <c r="H60" s="11">
         <v>6365630</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
       <c r="M60" t="s">
         <v>14</v>
       </c>
@@ -3020,12 +3117,12 @@
       <c r="V60" t="s">
         <v>22</v>
       </c>
-      <c r="AA60" s="10">
+      <c r="AA60" s="11">
         <v>6365630</v>
       </c>
-      <c r="AB60" s="10"/>
-      <c r="AC60" s="10"/>
-      <c r="AD60" s="10"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
       <c r="AF60" t="s">
         <v>14</v>
       </c>
@@ -3093,18 +3190,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H32:K32"/>
     <mergeCell ref="AA60:AD60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="AA46:AD46"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="AA32:AD32"/>
     <mergeCell ref="AA58:AE58"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9335817-2C7C-4D1A-BDBC-8E9FDC2491BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EB537-DE10-4777-B5CE-31683B303255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
@@ -285,6 +286,263 @@
     </rPh>
     <rPh sb="14" eb="15">
       <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Operator</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TestDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SaveDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BoradDate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hinban</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>isDay</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_Daicho</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>T_Data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Board</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NgType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NgText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// mode  0:紙から入力, 1:QRコードから入力</t>
+  </si>
+  <si>
+    <t>// Operator  オペレータ名</t>
+  </si>
+  <si>
+    <t>// TestDate  検査実施日時</t>
+  </si>
+  <si>
+    <t>// SaveDateTime  データ保存日時</t>
+  </si>
+  <si>
+    <t>// BoardDate  ボード製造日</t>
+  </si>
+  <si>
+    <t>// Hinban  品番</t>
+  </si>
+  <si>
+    <t>// isDay  昼勤かどうか(true:昼勤, false:夜勤)</t>
+  </si>
+  <si>
+    <t>// T_Data テーブル定義</t>
+  </si>
+  <si>
+    <t>// dID  台帳ID（T_DaichoのID）</t>
+  </si>
+  <si>
+    <t>// Board  ボード名（例：6365590A, 6365630Bなど）</t>
+  </si>
+  <si>
+    <t>// NgType  NGの種類（0:異物, 1:フラックス, 2:はんだボール, 3:はんだ屑, 4:炭化物, 5:ヒュミシール付着, 6:ヒュミシール未塗布, 7:浮き, 8:破損, 9:リードカット異常）</t>
+  </si>
+  <si>
+    <t>// NgText  NGの詳細テキスト（例：はんだボール, フラックスなど）</t>
+  </si>
+  <si>
+    <t>// X  X座標</t>
+  </si>
+  <si>
+    <t>// Y  Y座標</t>
+  </si>
+  <si>
+    <t>// Area  エリア番号（1～9）</t>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SQLiteでは、</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数はすべてINTEGERで定義されるが、内部的にはlong相当</t>
+    <rPh sb="0" eb="2">
+      <t>セイスウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ソウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮動小数点は、REALで定義される。内部的にはdoubleと同等。</t>
+    <rPh sb="0" eb="5">
+      <t>フドウショウスウテン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ナイブテキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ドウトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    name TEXT NOT NULL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    price REAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    category TEXT</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>CREATE TABLE TBL (</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    ID INTEGER PRIMARY KEY,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    code INTEGER NOT NULL,</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DB内</t>
+    <rPh sb="2" eb="3">
+      <t>ナイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C#</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Integer</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// QRの読取り文字列（mode0の時はSNと一致、mode1の時はQR読み取り文字全部)</t>
+    <rPh sb="9" eb="12">
+      <t>モジレツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>イッチ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>// SN  (mode=0のときはDummySN、mode=1の時はQR文字列.Substring(14,7))</t>
+    <rPh sb="37" eb="40">
+      <t>モジレツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -416,10 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2399,8 +2657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
   <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46:K46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -2702,13 +2960,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>45805</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
       <c r="M30" t="s">
         <v>14</v>
       </c>
@@ -2720,13 +2978,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="AA30" s="12">
+      <c r="AA30" s="11">
         <v>45805</v>
       </c>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
@@ -2767,12 +3025,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="12">
         <v>6365590</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
       <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>14</v>
@@ -2784,12 +3042,12 @@
       <c r="V32" t="s">
         <v>22</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA32" s="12">
         <v>6365590</v>
       </c>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
+      <c r="AB32" s="12"/>
+      <c r="AC32" s="12"/>
+      <c r="AD32" s="12"/>
       <c r="AG32" t="str">
         <f>MID(AA32,1,1)&amp; MID(AA32,5,3)&amp;"00"</f>
         <v>659000</v>
@@ -2866,13 +3124,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="H44" s="12">
+      <c r="H44" s="11">
         <v>45810</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
@@ -2884,13 +3142,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="AA44" s="12">
+      <c r="AA44" s="11">
         <v>45810</v>
       </c>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
@@ -2931,12 +3189,12 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="12">
         <v>6365590</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
       <c r="M46" t="s">
         <v>14</v>
       </c>
@@ -2947,12 +3205,12 @@
       <c r="V46" t="s">
         <v>22</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="12">
         <v>6365590</v>
       </c>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
+      <c r="AB46" s="12"/>
+      <c r="AC46" s="12"/>
+      <c r="AD46" s="12"/>
       <c r="AF46" t="s">
         <v>14</v>
       </c>
@@ -3036,13 +3294,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="H58" s="12">
+      <c r="H58" s="11">
         <v>45818</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
       <c r="M58" t="s">
         <v>14</v>
       </c>
@@ -3054,13 +3312,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="AA58" s="12">
+      <c r="AA58" s="11">
         <v>45810</v>
       </c>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
       <c r="AF58" t="s">
         <v>14</v>
       </c>
@@ -3101,12 +3359,12 @@
       <c r="C60" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="12">
         <v>6365630</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
       <c r="M60" t="s">
         <v>14</v>
       </c>
@@ -3117,12 +3375,12 @@
       <c r="V60" t="s">
         <v>22</v>
       </c>
-      <c r="AA60" s="11">
+      <c r="AA60" s="12">
         <v>6365630</v>
       </c>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
       <c r="AF60" t="s">
         <v>14</v>
       </c>
@@ -3190,18 +3448,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA60:AD60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AA58:AE58"/>
     <mergeCell ref="AA30:AE30"/>
     <mergeCell ref="AA44:AE44"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="AA60:AD60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AA58:AE58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3210,4 +3468,283 @@
   </ignoredErrors>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91429BB1-62D2-43EF-B89B-06B8EB00C1E6}">
+  <dimension ref="A2:F39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="F8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706EB537-DE10-4777-B5CE-31683B303255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C6466-55E8-40AF-A46F-5EC7A43386DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -674,10 +674,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2333,6 +2333,804 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>2028825</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B842F8-95AE-ADE7-213C-1203843CB694}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9801225" y="866775"/>
+          <a:ext cx="4572000" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SQLite</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で、下記</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Table</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>構造での</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文を作成して。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>T_Daicho</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QRText</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Operator</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を指定して、その</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を得て、</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>T_Data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>で、その</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>と一致する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>dID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>を持つレコードを削除する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SQL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>文</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル構造</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>T_Daicho</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>AutoIncrement</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>mode:Integer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>QRText:Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SN:Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Operator:Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>TestDate:Text(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>SaveDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Text(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>BoardDate</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:Text(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>日付</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Hinban:Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>isDay:Integer(FLG</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル名：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>T_Data</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>AutoIncrement</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>dID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Integer,T_Daicho</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>。連携用</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Board</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NgType:Integer</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>NgText:Text</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>X:REAL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Y:REAL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l">
+            <a:lnSpc>
+              <a:spcPts val="1320"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+              <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>Area:Integer</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:latin typeface="Consolas" panose="020B0609020204030204" pitchFamily="49" charset="0"/>
+            <a:ea typeface="Meiryo UI" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2657,7 +3455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
   <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2960,13 +3758,13 @@
         <v>0</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="11">
+      <c r="H30" s="12">
         <v>45805</v>
       </c>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="12"/>
       <c r="M30" t="s">
         <v>14</v>
       </c>
@@ -2978,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="AA30" s="11">
+      <c r="AA30" s="12">
         <v>45805</v>
       </c>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
+      <c r="AB30" s="12"/>
+      <c r="AC30" s="12"/>
+      <c r="AD30" s="12"/>
+      <c r="AE30" s="12"/>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
@@ -3025,12 +3823,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>6365590</v>
       </c>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>14</v>
@@ -3042,12 +3840,12 @@
       <c r="V32" t="s">
         <v>22</v>
       </c>
-      <c r="AA32" s="12">
+      <c r="AA32" s="11">
         <v>6365590</v>
       </c>
-      <c r="AB32" s="12"/>
-      <c r="AC32" s="12"/>
-      <c r="AD32" s="12"/>
+      <c r="AB32" s="11"/>
+      <c r="AC32" s="11"/>
+      <c r="AD32" s="11"/>
       <c r="AG32" t="str">
         <f>MID(AA32,1,1)&amp; MID(AA32,5,3)&amp;"00"</f>
         <v>659000</v>
@@ -3124,13 +3922,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="H44" s="11">
+      <c r="H44" s="12">
         <v>45810</v>
       </c>
-      <c r="I44" s="11"/>
-      <c r="J44" s="11"/>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
@@ -3142,13 +3940,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="AA44" s="11">
+      <c r="AA44" s="12">
         <v>45810</v>
       </c>
-      <c r="AB44" s="11"/>
-      <c r="AC44" s="11"/>
-      <c r="AD44" s="11"/>
-      <c r="AE44" s="11"/>
+      <c r="AB44" s="12"/>
+      <c r="AC44" s="12"/>
+      <c r="AD44" s="12"/>
+      <c r="AE44" s="12"/>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
@@ -3189,12 +3987,12 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="12">
+      <c r="H46" s="11">
         <v>6365590</v>
       </c>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
       <c r="M46" t="s">
         <v>14</v>
       </c>
@@ -3205,12 +4003,12 @@
       <c r="V46" t="s">
         <v>22</v>
       </c>
-      <c r="AA46" s="12">
+      <c r="AA46" s="11">
         <v>6365590</v>
       </c>
-      <c r="AB46" s="12"/>
-      <c r="AC46" s="12"/>
-      <c r="AD46" s="12"/>
+      <c r="AB46" s="11"/>
+      <c r="AC46" s="11"/>
+      <c r="AD46" s="11"/>
       <c r="AF46" t="s">
         <v>14</v>
       </c>
@@ -3294,13 +4092,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="H58" s="11">
+      <c r="H58" s="12">
         <v>45818</v>
       </c>
-      <c r="I58" s="11"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
       <c r="M58" t="s">
         <v>14</v>
       </c>
@@ -3312,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="AA58" s="11">
+      <c r="AA58" s="12">
         <v>45810</v>
       </c>
-      <c r="AB58" s="11"/>
-      <c r="AC58" s="11"/>
-      <c r="AD58" s="11"/>
-      <c r="AE58" s="11"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
       <c r="AF58" t="s">
         <v>14</v>
       </c>
@@ -3359,12 +4157,12 @@
       <c r="C60" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="12">
+      <c r="H60" s="11">
         <v>6365630</v>
       </c>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
       <c r="M60" t="s">
         <v>14</v>
       </c>
@@ -3375,12 +4173,12 @@
       <c r="V60" t="s">
         <v>22</v>
       </c>
-      <c r="AA60" s="12">
+      <c r="AA60" s="11">
         <v>6365630</v>
       </c>
-      <c r="AB60" s="12"/>
-      <c r="AC60" s="12"/>
-      <c r="AD60" s="12"/>
+      <c r="AB60" s="11"/>
+      <c r="AC60" s="11"/>
+      <c r="AD60" s="11"/>
       <c r="AF60" t="s">
         <v>14</v>
       </c>
@@ -3448,18 +4246,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H32:K32"/>
     <mergeCell ref="AA60:AD60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="AA46:AD46"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="AA32:AD32"/>
     <mergeCell ref="AA58:AE58"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3474,11 +4272,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91429BB1-62D2-43EF-B89B-06B8EB00C1E6}">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="19" max="19" width="33" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
@@ -3746,5 +4547,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NG_Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-ito\Documents\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C81C6466-55E8-40AF-A46F-5EC7A43386DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EF2AB-4E64-4368-BDEA-17458BABDE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
+    <workbookView xWindow="8325" yWindow="2355" windowWidth="17490" windowHeight="11040" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
@@ -508,10 +497,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>QR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>// QRの読取り文字列（mode0の時はSNと一致、mode1の時はQR読み取り文字全部)</t>
     <rPh sb="9" eb="12">
       <t>モジレツ</t>
@@ -544,6 +529,26 @@
     <rPh sb="37" eb="40">
       <t>モジレツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250528H659000B10213IF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>250610S663000B40F13SF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>QRText</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LineName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -640,7 +645,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,13 +676,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3137,9 +3139,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3177,7 +3179,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3283,7 +3285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3425,7 +3427,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3455,8 +3457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
   <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AK22" sqref="AK22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3744,9 +3746,8 @@
       <c r="V25" s="8"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C29" t="str">
-        <f>_xlfn.TEXTJOIN("",TRUE,N30:N34)</f>
-        <v>250528H659000B10213IF</v>
+      <c r="C29" t="s">
+        <v>90</v>
       </c>
       <c r="V29" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,AG30:AG34)</f>
@@ -3755,16 +3756,16 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="12">
+      <c r="H30" s="10">
         <v>45805</v>
       </c>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="12"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
       <c r="M30" t="s">
         <v>14</v>
       </c>
@@ -3776,13 +3777,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="AA30" s="12">
+      <c r="AA30" s="10">
         <v>45805</v>
       </c>
-      <c r="AB30" s="12"/>
-      <c r="AC30" s="12"/>
-      <c r="AD30" s="12"/>
-      <c r="AE30" s="12"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
@@ -3922,13 +3923,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="H44" s="12">
+      <c r="H44" s="10">
         <v>45810</v>
       </c>
-      <c r="I44" s="12"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="12"/>
-      <c r="L44" s="12"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
@@ -3940,13 +3941,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="AA44" s="12">
+      <c r="AA44" s="10">
         <v>45810</v>
       </c>
-      <c r="AB44" s="12"/>
-      <c r="AC44" s="12"/>
-      <c r="AD44" s="12"/>
-      <c r="AE44" s="12"/>
+      <c r="AB44" s="10"/>
+      <c r="AC44" s="10"/>
+      <c r="AD44" s="10"/>
+      <c r="AE44" s="10"/>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
@@ -4024,9 +4025,6 @@
       <c r="H47" t="s">
         <v>20</v>
       </c>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
       <c r="L47" s="9"/>
       <c r="M47" t="s">
         <v>14</v>
@@ -4092,13 +4090,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="H58" s="12">
+      <c r="H58" s="10">
         <v>45818</v>
       </c>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
       <c r="M58" t="s">
         <v>14</v>
       </c>
@@ -4110,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="AA58" s="12">
+      <c r="AA58" s="10">
         <v>45810</v>
       </c>
-      <c r="AB58" s="12"/>
-      <c r="AC58" s="12"/>
-      <c r="AD58" s="12"/>
-      <c r="AE58" s="12"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
       <c r="AF58" t="s">
         <v>14</v>
       </c>
@@ -4246,18 +4244,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA60:AD60"/>
+    <mergeCell ref="H60:K60"/>
+    <mergeCell ref="AA46:AD46"/>
+    <mergeCell ref="H46:K46"/>
+    <mergeCell ref="AA32:AD32"/>
+    <mergeCell ref="AA58:AE58"/>
     <mergeCell ref="AA30:AE30"/>
     <mergeCell ref="AA44:AE44"/>
     <mergeCell ref="H44:L44"/>
     <mergeCell ref="H58:L58"/>
     <mergeCell ref="H30:L30"/>
     <mergeCell ref="H32:K32"/>
-    <mergeCell ref="AA60:AD60"/>
-    <mergeCell ref="H60:K60"/>
-    <mergeCell ref="AA46:AD46"/>
-    <mergeCell ref="H46:K46"/>
-    <mergeCell ref="AA32:AD32"/>
-    <mergeCell ref="AA58:AE58"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4272,8 +4270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91429BB1-62D2-43EF-B89B-06B8EB00C1E6}">
   <dimension ref="A2:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -4327,13 +4325,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4344,7 +4342,7 @@
         <v>86</v>
       </c>
       <c r="F7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4423,6 +4421,17 @@
       </c>
       <c r="F13" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">

--- a/QRコード.xlsx
+++ b/QRコード.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-ito\Documents\git\NG_Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\NG_Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853EF2AB-4E64-4368-BDEA-17458BABDE28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{632D0C78-15CF-4D6B-9DAC-588396767C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8325" yWindow="2355" windowWidth="17490" windowHeight="11040" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{056D0A2B-0DC5-4768-96A4-92AD07DAB442}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="93">
   <si>
     <t>年月日</t>
     <rPh sb="0" eb="3">
@@ -529,14 +540,6 @@
     <rPh sb="37" eb="40">
       <t>モジレツ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>250528H659000B10213IF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>250610S663000B40F13SF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -676,10 +679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3139,9 +3142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3179,7 +3182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -3285,7 +3288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3427,7 +3430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3457,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C866868-408A-4EFD-ADBC-A3643E0507D3}">
   <dimension ref="B2:AG62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AK22" sqref="AK22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V29" sqref="V29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -3746,8 +3749,9 @@
       <c r="V25" s="8"/>
     </row>
     <row r="29" spans="2:33" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>90</v>
+      <c r="C29" t="str">
+        <f>_xlfn.TEXTJOIN("",TRUE,N30:N34)</f>
+        <v>250528H659000B10213IF</v>
       </c>
       <c r="V29" t="str">
         <f>_xlfn.TEXTJOIN("",TRUE,AG30:AG34)</f>
@@ -3756,16 +3760,16 @@
     </row>
     <row r="30" spans="2:33" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="H30" s="10">
+      <c r="H30" s="11">
         <v>45805</v>
       </c>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
       <c r="M30" t="s">
         <v>14</v>
       </c>
@@ -3777,13 +3781,13 @@
         <v>0</v>
       </c>
       <c r="W30" s="1"/>
-      <c r="AA30" s="10">
+      <c r="AA30" s="11">
         <v>45805</v>
       </c>
-      <c r="AB30" s="10"/>
-      <c r="AC30" s="10"/>
-      <c r="AD30" s="10"/>
-      <c r="AE30" s="10"/>
+      <c r="AB30" s="11"/>
+      <c r="AC30" s="11"/>
+      <c r="AD30" s="11"/>
+      <c r="AE30" s="11"/>
       <c r="AF30" t="s">
         <v>14</v>
       </c>
@@ -3824,12 +3828,12 @@
       <c r="C32" t="s">
         <v>22</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="10">
         <v>6365590</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
       <c r="L32" s="9"/>
       <c r="M32" t="s">
         <v>14</v>
@@ -3841,12 +3845,12 @@
       <c r="V32" t="s">
         <v>22</v>
       </c>
-      <c r="AA32" s="11">
+      <c r="AA32" s="10">
         <v>6365590</v>
       </c>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
       <c r="AG32" t="str">
         <f>MID(AA32,1,1)&amp; MID(AA32,5,3)&amp;"00"</f>
         <v>659000</v>
@@ -3923,13 +3927,13 @@
         <v>0</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="H44" s="10">
+      <c r="H44" s="11">
         <v>45810</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
       <c r="M44" t="s">
         <v>14</v>
       </c>
@@ -3941,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="W44" s="1"/>
-      <c r="AA44" s="10">
+      <c r="AA44" s="11">
         <v>45810</v>
       </c>
-      <c r="AB44" s="10"/>
-      <c r="AC44" s="10"/>
-      <c r="AD44" s="10"/>
-      <c r="AE44" s="10"/>
+      <c r="AB44" s="11"/>
+      <c r="AC44" s="11"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="11"/>
       <c r="AF44" t="s">
         <v>14</v>
       </c>
@@ -3988,12 +3992,12 @@
       <c r="C46" t="s">
         <v>22</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="10">
         <v>6365590</v>
       </c>
-      <c r="I46" s="11"/>
-      <c r="J46" s="11"/>
-      <c r="K46" s="11"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
       <c r="M46" t="s">
         <v>14</v>
       </c>
@@ -4004,12 +4008,12 @@
       <c r="V46" t="s">
         <v>22</v>
       </c>
-      <c r="AA46" s="11">
+      <c r="AA46" s="10">
         <v>6365590</v>
       </c>
-      <c r="AB46" s="11"/>
-      <c r="AC46" s="11"/>
-      <c r="AD46" s="11"/>
+      <c r="AB46" s="10"/>
+      <c r="AC46" s="10"/>
+      <c r="AD46" s="10"/>
       <c r="AF46" t="s">
         <v>14</v>
       </c>
@@ -4090,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="H58" s="10">
+      <c r="H58" s="11">
         <v>45818</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
       <c r="M58" t="s">
         <v>14</v>
       </c>
@@ -4108,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="W58" s="1"/>
-      <c r="AA58" s="10">
+      <c r="AA58" s="11">
         <v>45810</v>
       </c>
-      <c r="AB58" s="10"/>
-      <c r="AC58" s="10"/>
-      <c r="AD58" s="10"/>
-      <c r="AE58" s="10"/>
+      <c r="AB58" s="11"/>
+      <c r="AC58" s="11"/>
+      <c r="AD58" s="11"/>
+      <c r="AE58" s="11"/>
       <c r="AF58" t="s">
         <v>14</v>
       </c>
@@ -4155,12 +4159,12 @@
       <c r="C60" t="s">
         <v>22</v>
       </c>
-      <c r="H60" s="11">
+      <c r="H60" s="10">
         <v>6365630</v>
       </c>
-      <c r="I60" s="11"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
       <c r="M60" t="s">
         <v>14</v>
       </c>
@@ -4171,12 +4175,12 @@
       <c r="V60" t="s">
         <v>22</v>
       </c>
-      <c r="AA60" s="11">
+      <c r="AA60" s="10">
         <v>6365630</v>
       </c>
-      <c r="AB60" s="11"/>
-      <c r="AC60" s="11"/>
-      <c r="AD60" s="11"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
       <c r="AF60" t="s">
         <v>14</v>
       </c>
@@ -4244,18 +4248,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA30:AE30"/>
+    <mergeCell ref="AA44:AE44"/>
+    <mergeCell ref="H44:L44"/>
+    <mergeCell ref="H58:L58"/>
+    <mergeCell ref="H30:L30"/>
+    <mergeCell ref="H32:K32"/>
     <mergeCell ref="AA60:AD60"/>
     <mergeCell ref="H60:K60"/>
     <mergeCell ref="AA46:AD46"/>
     <mergeCell ref="H46:K46"/>
     <mergeCell ref="AA32:AD32"/>
     <mergeCell ref="AA58:AE58"/>
-    <mergeCell ref="AA30:AE30"/>
-    <mergeCell ref="AA44:AE44"/>
-    <mergeCell ref="H44:L44"/>
-    <mergeCell ref="H58:L58"/>
-    <mergeCell ref="H30:L30"/>
-    <mergeCell ref="H32:K32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4325,7 +4329,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
         <v>86</v>
@@ -4425,13 +4429,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C14" t="s">
         <v>86</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
